--- a/gs.xlsx
+++ b/gs.xlsx
@@ -31,16 +31,16 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">MCA MDA 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">MCA MDA 2</t>
   </si>
   <si>
+    <t xml:space="preserve">MCA MDA 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCA TAG 1</t>
   </si>
   <si>
-    <t xml:space="preserve">MCA TAG 2</t>
+    <t xml:space="preserve">MCA TAG 3</t>
   </si>
   <si>
     <t xml:space="preserve">MCA A-LA 1</t>
@@ -163,6 +163,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -267,10 +268,10 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.92"/>
